--- a/documenten/Requirements/Requirements DONE.xlsx
+++ b/documenten/Requirements/Requirements DONE.xlsx
@@ -1029,17 +1029,17 @@
         <v>80</v>
       </c>
     </row>
-    <row r="11" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A11" s="6" t="s">
+    <row r="11" spans="1:4" s="13" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A11" s="10" t="s">
         <v>47</v>
       </c>
-      <c r="B11" s="2" t="s">
+      <c r="B11" s="11" t="s">
         <v>81</v>
       </c>
-      <c r="C11" s="3" t="s">
-        <v>34</v>
-      </c>
-      <c r="D11" s="4" t="s">
+      <c r="C11" s="12" t="s">
+        <v>34</v>
+      </c>
+      <c r="D11" s="13" t="s">
         <v>80</v>
       </c>
     </row>
